--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1644.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1644.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.019245415468099</v>
+        <v>2.041845560073853</v>
       </c>
       <c r="B1">
-        <v>3.283806059645582</v>
+        <v>3.458868503570557</v>
       </c>
       <c r="C1">
-        <v>3.402113051228886</v>
+        <v>3.169588804244995</v>
       </c>
       <c r="D1">
-        <v>2.385369445142407</v>
+        <v>3.60242772102356</v>
       </c>
       <c r="E1">
-        <v>1.230150417750063</v>
+        <v>1.498715281486511</v>
       </c>
     </row>
   </sheetData>
